--- a/Transmission/JVN-DesignCalc.20170214.xlsx
+++ b/Transmission/JVN-DesignCalc.20170214.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\FRC2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\FRC2017\Transmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5607,7 +5607,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6028,7 +6028,7 @@
   <sortState ref="I27:N70">
     <sortCondition descending="1" ref="M27:M70"/>
   </sortState>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>Motors</formula1>
     </dataValidation>
@@ -6612,8 +6612,8 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6753,7 +6753,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="19">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G8" s="13">
         <v>1</v>
@@ -6818,7 +6818,7 @@
         <v>86</v>
       </c>
       <c r="D13" s="115" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="E13" s="116"/>
       <c r="F13" s="116"/>
@@ -6919,19 +6919,19 @@
       </c>
       <c r="D20" s="94">
         <f>E20/0.81</f>
-        <v>19.380426902353694</v>
+        <v>34.884768424236654</v>
       </c>
       <c r="E20" s="94">
         <f>D$5*0.81*((D$8*0.0254/2)*2*PI())/(0.3048*60)*D25/E25*D28/E28*D29/E29*D26/E26</f>
-        <v>15.698145790906494</v>
+        <v>28.256662423631692</v>
       </c>
       <c r="F20" s="42">
         <f>IF((((F$5-G$5)/E$5*(F$8*G$8*E$8/2*4.44822161526*D$8*0.0254/0.9/2*D25/E25*D28/E28*D29/E29*D26/E26))+G$5)&gt;F5,F5,(((F$5-G$5)/E$5*(F$8*G$8*E$8/2*4.44822161526*D$8*0.0254/0.9/2*D25/E25*D28/E28*D29/E29*D26/E26))+G$5))</f>
-        <v>219.82070547998359</v>
+        <v>262</v>
       </c>
       <c r="G20" s="95">
         <f>E25*E28*E29*E26/D25/D28/D29/D26</f>
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="1"/>
@@ -6944,19 +6944,19 @@
       </c>
       <c r="D21" s="94">
         <f>E21/0.81</f>
-        <v>8.5273878370356275</v>
+        <v>15.349298106664127</v>
       </c>
       <c r="E21" s="94">
         <f>D$5*0.81*D$8*0.0254/2*2*PI()/(0.3048*60)*D25/E25*D28/E28*D29/E29*D27/E27</f>
-        <v>6.9071841479988585</v>
+        <v>12.432931466397944</v>
       </c>
       <c r="F21" s="42">
         <f>IF((((F$5-G$5)/E$5*(F$8*G$8*E$8/2*4.44822161526*D$8*0.0254/0.9/2*D25/E25*D28/E28*D29/E29*D27/E27))+G$5)&gt;F5,F5,(((F$5-G$5)/E$5*(F$8*G$8*E$8/2*4.44822161526*D$8*0.0254/0.9/2*D25/E25*D28/E28*D29/E29*D27/E27))+G$5))</f>
-        <v>99.745110411192755</v>
+        <v>170.81025851313018</v>
       </c>
       <c r="G21" s="95">
         <f>E25*E28*E29*E27/D25/D28/D29/D27</f>
-        <v>16.363636363636363</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="1"/>
@@ -7061,11 +7061,11 @@
       </c>
       <c r="D28" s="73">
         <f>VLOOKUP(D13,thirdstage2CIM,2,FALSE)</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E28" s="73">
         <f>VLOOKUP(D13,thirdstage2CIM,3,FALSE)</f>
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="F28" s="98"/>
       <c r="G28" s="98"/>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="D30" s="40">
         <f>D20/D21</f>
-        <v>2.272727272727272</v>
+        <v>2.2727272727272729</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -7702,7 +7702,9 @@
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
